--- a/documentos/Diagrama Gantt.xlsx
+++ b/documentos/Diagrama Gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cayo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cayo\Desktop\cardenas\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -160,12 +160,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -276,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -297,6 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -622,11 +629,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1028880544"/>
-        <c:axId val="1028883808"/>
+        <c:axId val="1779209040"/>
+        <c:axId val="1779218288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1028880544"/>
+        <c:axId val="1779209040"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -683,7 +690,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1028883808"/>
+        <c:crossAx val="1779218288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -691,7 +698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1028883808"/>
+        <c:axId val="1779218288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42333"/>
@@ -758,7 +765,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1028880544"/>
+        <c:crossAx val="1779209040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1653,7 +1660,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1686,7 +1693,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1812,7 +1819,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -1896,7 +1903,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="11" t="s">
